--- a/matchEuro2016.xlsx
+++ b/matchEuro2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Typer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF3A940-C22D-4E43-9C5B-6B85C9F90599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8B1032-461F-4CC6-8582-D0E79047EDF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8698" xr2:uid="{FB15682E-3BE5-4621-B949-75CFC3748DB7}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD877C4-D99A-4218-BA83-BF26B3996BB1}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1025,1128 @@
         <v>5</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>6</v>
+      </c>
+      <c r="B55" s="3">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>8</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>14</v>
+      </c>
+      <c r="B57" s="3">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3">
+        <v>9</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>16</v>
+      </c>
+      <c r="B60" s="3">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>22</v>
+      </c>
+      <c r="B61" s="3">
+        <v>23</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>18</v>
+      </c>
+      <c r="B63" s="3">
+        <v>19</v>
+      </c>
+      <c r="C63" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>5</v>
+      </c>
+      <c r="B65" s="3">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>4</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="3">
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>12</v>
+      </c>
+      <c r="B70" s="3">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>21</v>
+      </c>
+      <c r="B71" s="3">
+        <v>23</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>13</v>
+      </c>
+      <c r="B72" s="3">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>16</v>
+      </c>
+      <c r="B73" s="3">
+        <v>14</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>24</v>
+      </c>
+      <c r="B74" s="3">
+        <v>22</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>17</v>
+      </c>
+      <c r="B75" s="3">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>20</v>
+      </c>
+      <c r="B76" s="3">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>1</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>3</v>
+      </c>
+      <c r="B78" s="3">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>9</v>
+      </c>
+      <c r="B81" s="3">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>11</v>
+      </c>
+      <c r="B82" s="3">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>13</v>
+      </c>
+      <c r="B83" s="3">
+        <v>14</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>15</v>
+      </c>
+      <c r="B84" s="3">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>17</v>
+      </c>
+      <c r="B85" s="3">
+        <v>18</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>19</v>
+      </c>
+      <c r="B86" s="3">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>21</v>
+      </c>
+      <c r="B87" s="3">
+        <v>22</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>23</v>
+      </c>
+      <c r="B88" s="3">
+        <v>24</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>3</v>
+      </c>
+      <c r="B89" s="5">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>6</v>
+      </c>
+      <c r="B90" s="5">
+        <v>11</v>
+      </c>
+      <c r="C90" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>15</v>
+      </c>
+      <c r="B91" s="5">
+        <v>20</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>4</v>
+      </c>
+      <c r="B92" s="5">
+        <v>22</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>12</v>
+      </c>
+      <c r="B93" s="5">
+        <v>7</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>19</v>
+      </c>
+      <c r="B94" s="5">
+        <v>24</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>21</v>
+      </c>
+      <c r="B95" s="5">
+        <v>16</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>8</v>
+      </c>
+      <c r="B96" s="5">
+        <v>17</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>10</v>
+      </c>
+      <c r="B97" s="5">
+        <v>20</v>
+      </c>
+      <c r="C97" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>6</v>
+      </c>
+      <c r="B98" s="5">
+        <v>24</v>
+      </c>
+      <c r="C98" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>12</v>
+      </c>
+      <c r="B99" s="5">
+        <v>21</v>
+      </c>
+      <c r="C99" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>4</v>
+      </c>
+      <c r="B100" s="5">
+        <v>17</v>
+      </c>
+      <c r="C100" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>20</v>
+      </c>
+      <c r="B101" s="5">
+        <v>6</v>
+      </c>
+      <c r="C101" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>12</v>
+      </c>
+      <c r="B102" s="5">
+        <v>4</v>
+      </c>
+      <c r="C102" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>20</v>
+      </c>
+      <c r="B103" s="5">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>2</v>
+      </c>
+      <c r="B105" s="3">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>6</v>
+      </c>
+      <c r="B106" s="3">
+        <v>7</v>
+      </c>
+      <c r="C106" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>8</v>
+      </c>
+      <c r="B107" s="3">
+        <v>5</v>
+      </c>
+      <c r="C107" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>14</v>
+      </c>
+      <c r="B108" s="3">
+        <v>15</v>
+      </c>
+      <c r="C108" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>10</v>
+      </c>
+      <c r="B109" s="3">
+        <v>11</v>
+      </c>
+      <c r="C109" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>12</v>
+      </c>
+      <c r="B110" s="3">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>16</v>
+      </c>
+      <c r="B111" s="3">
+        <v>13</v>
+      </c>
+      <c r="C111" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>22</v>
+      </c>
+      <c r="B112" s="3">
+        <v>23</v>
+      </c>
+      <c r="C112" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>24</v>
+      </c>
+      <c r="B113" s="3">
+        <v>21</v>
+      </c>
+      <c r="C113" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>18</v>
+      </c>
+      <c r="B114" s="3">
+        <v>19</v>
+      </c>
+      <c r="C114" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>20</v>
+      </c>
+      <c r="B115" s="3">
+        <v>17</v>
+      </c>
+      <c r="C115" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>5</v>
+      </c>
+      <c r="B116" s="3">
+        <v>7</v>
+      </c>
+      <c r="C116" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>1</v>
+      </c>
+      <c r="B117" s="3">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>8</v>
+      </c>
+      <c r="B119" s="3">
+        <v>6</v>
+      </c>
+      <c r="C119" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>9</v>
+      </c>
+      <c r="B120" s="3">
+        <v>11</v>
+      </c>
+      <c r="C120" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>12</v>
+      </c>
+      <c r="B121" s="3">
+        <v>10</v>
+      </c>
+      <c r="C121" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>21</v>
+      </c>
+      <c r="B122" s="3">
+        <v>23</v>
+      </c>
+      <c r="C122" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>13</v>
+      </c>
+      <c r="B123" s="3">
+        <v>15</v>
+      </c>
+      <c r="C123" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>16</v>
+      </c>
+      <c r="B124" s="3">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>24</v>
+      </c>
+      <c r="B125" s="3">
+        <v>22</v>
+      </c>
+      <c r="C125" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>17</v>
+      </c>
+      <c r="B126" s="3">
+        <v>19</v>
+      </c>
+      <c r="C126" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>20</v>
+      </c>
+      <c r="B127" s="3">
+        <v>18</v>
+      </c>
+      <c r="C127" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>5</v>
+      </c>
+      <c r="B130" s="3">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>7</v>
+      </c>
+      <c r="B131" s="3">
+        <v>8</v>
+      </c>
+      <c r="C131" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>9</v>
+      </c>
+      <c r="B132" s="3">
+        <v>10</v>
+      </c>
+      <c r="C132" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>11</v>
+      </c>
+      <c r="B133" s="3">
+        <v>12</v>
+      </c>
+      <c r="C133" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>13</v>
+      </c>
+      <c r="B134" s="3">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>15</v>
+      </c>
+      <c r="B135" s="3">
+        <v>16</v>
+      </c>
+      <c r="C135" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>17</v>
+      </c>
+      <c r="B136" s="3">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>19</v>
+      </c>
+      <c r="B137" s="3">
+        <v>20</v>
+      </c>
+      <c r="C137" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>21</v>
+      </c>
+      <c r="B138" s="3">
+        <v>22</v>
+      </c>
+      <c r="C138" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>23</v>
+      </c>
+      <c r="B139" s="3">
+        <v>24</v>
+      </c>
+      <c r="C139" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>3</v>
+      </c>
+      <c r="B140" s="5">
+        <v>10</v>
+      </c>
+      <c r="C140" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>6</v>
+      </c>
+      <c r="B141" s="5">
+        <v>11</v>
+      </c>
+      <c r="C141" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>15</v>
+      </c>
+      <c r="B142" s="5">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>4</v>
+      </c>
+      <c r="B143" s="5">
+        <v>22</v>
+      </c>
+      <c r="C143" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>12</v>
+      </c>
+      <c r="B144" s="5">
+        <v>7</v>
+      </c>
+      <c r="C144" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>19</v>
+      </c>
+      <c r="B145" s="5">
+        <v>24</v>
+      </c>
+      <c r="C145" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>21</v>
+      </c>
+      <c r="B146" s="5">
+        <v>16</v>
+      </c>
+      <c r="C146" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>8</v>
+      </c>
+      <c r="B147" s="5">
+        <v>17</v>
+      </c>
+      <c r="C147" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>10</v>
+      </c>
+      <c r="B148" s="5">
+        <v>20</v>
+      </c>
+      <c r="C148" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>6</v>
+      </c>
+      <c r="B149" s="5">
+        <v>24</v>
+      </c>
+      <c r="C149" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>12</v>
+      </c>
+      <c r="B150" s="5">
+        <v>21</v>
+      </c>
+      <c r="C150" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>4</v>
+      </c>
+      <c r="B151" s="5">
+        <v>17</v>
+      </c>
+      <c r="C151" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>20</v>
+      </c>
+      <c r="B152" s="5">
+        <v>6</v>
+      </c>
+      <c r="C152" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>12</v>
+      </c>
+      <c r="B153" s="5">
+        <v>4</v>
+      </c>
+      <c r="C153" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>20</v>
+      </c>
+      <c r="B154" s="5">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
